--- a/Requirements/SMS.xlsx
+++ b/Requirements/SMS.xlsx
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -284,17 +284,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,7 +708,7 @@
   <dimension ref="A2:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,7 +796,7 @@
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4" ca="1" si="0">+I4-TODAY()</f>
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -850,30 +841,30 @@
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="13">
         <v>44562</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="13">
         <v>45291</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="14">
         <f t="shared" ref="I8" ca="1" si="1">+H8-TODAY()</f>
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -930,34 +921,34 @@
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13">
         <v>44562</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="13">
         <v>45291</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="14">
         <f ca="1">+L12-TODAY()</f>
-        <v>323</v>
-      </c>
-      <c r="N12" s="13"/>
+        <v>316</v>
+      </c>
+      <c r="N12" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -1031,7 +1022,7 @@
       </c>
       <c r="L16" s="7">
         <f t="shared" ref="L16" ca="1" si="2">+K16-TODAY()</f>
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M16" s="3"/>
     </row>
@@ -1103,7 +1094,7 @@
       </c>
       <c r="K20" s="7">
         <f t="shared" ref="K20" ca="1" si="3">+J20-TODAY()</f>
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L20" s="3"/>
     </row>
@@ -1171,7 +1162,7 @@
       </c>
       <c r="J24" s="7">
         <f t="shared" ref="J24" ca="1" si="4">+I24-TODAY()</f>
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1243,7 +1234,7 @@
       </c>
       <c r="K28" s="7">
         <f t="shared" ref="K28" ca="1" si="5">+J28-TODAY()</f>
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -1315,7 +1306,7 @@
       </c>
       <c r="K32" s="7">
         <f t="shared" ref="K32" ca="1" si="6">+J32-TODAY()</f>
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L32" s="3"/>
     </row>
@@ -1387,7 +1378,7 @@
       </c>
       <c r="K36" s="7">
         <f t="shared" ref="K36" ca="1" si="7">+J36-TODAY()</f>
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L36" s="3"/>
     </row>
